--- a/resources/table/enum.class.xlsx
+++ b/resources/table/enum.class.xlsx
@@ -2,34 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7316C389-6199-43F0-B099-D97B64278C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89D4D6-8018-4AAF-962A-ADC4808FC02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{E3DF90E4-1439-4BA6-8481-C5727015A5CB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{E3DF90E4-1439-4BA6-8481-C5727015A5CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="classes" sheetId="1" r:id="rId1"/>
+    <sheet name="CLASS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,23 +27,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>none</t>
+    <t>NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>warrior</t>
+    <t>WARRIOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thief</t>
+    <t>THIEF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magicion</t>
+    <t>MAGICION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ascetic</t>
+    <t>ASCETIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0AC299-6373-444B-B465-F5D3A155A1B8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -498,6 +487,9 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
